--- a/TDD_examples/CASE_1_ITER_like_LTS/environment_input.xlsx
+++ b/TDD_examples/CASE_1_ITER_like_LTS/environment_input.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/SC2_38/Description_of_Components/ITER_TF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_1_ITER_like_LTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{01D43060-AA5F-4158-AE60-13D7362B342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D8015C-EC0A-4E92-BC46-71E2AA9F2EF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF15767-3ECD-4D00-B13E-F4A21981FB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIRONMENT" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,16 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -148,7 +142,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -180,6 +174,28 @@
           <cell r="A2" t="str">
             <v>Variable name</v>
           </cell>
+          <cell r="E2" t="str">
+            <v>Value</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TRANSIENT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Variable name</v>
+          </cell>
           <cell r="B2" t="str">
             <v>Unit</v>
           </cell>
@@ -188,9 +204,6 @@
           </cell>
           <cell r="D2" t="str">
             <v>Note/comments</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Value</v>
           </cell>
         </row>
       </sheetData>
@@ -502,42 +515,42 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="str">
-        <f>[1]TRANSIENT!A$2</f>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="str">
+        <f>[2]TRANSIENT!A$2</f>
         <v>Variable name</v>
       </c>
-      <c r="B1" s="7" t="str">
-        <f>[1]TRANSIENT!B$2</f>
+      <c r="B1" s="5" t="str">
+        <f>[2]TRANSIENT!B$2</f>
         <v>Unit</v>
       </c>
-      <c r="C1" s="7" t="str">
-        <f>[1]TRANSIENT!C$2</f>
+      <c r="C1" s="5" t="str">
+        <f>[2]TRANSIENT!C$2</f>
         <v>Variable type</v>
       </c>
-      <c r="D1" s="7" t="str">
-        <f>[1]TRANSIENT!D$2</f>
+      <c r="D1" s="5" t="str">
+        <f>[2]TRANSIENT!D$2</f>
         <v>Note/comments</v>
       </c>
-      <c r="E1" s="7" t="str">
+      <c r="E1" s="5" t="str">
         <f>[1]TRANSIENT!E$2</f>
         <v>Value</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,14 +560,14 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -567,11 +580,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>300.14999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,7 +597,7 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>101325</v>
       </c>
     </row>
